--- a/AfDD_2024_Annex_Table_Tab29.xlsx
+++ b/AfDD_2024_Annex_Table_Tab29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BAB1FA-30BD-4B01-AA14-63B220EBF3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A431B42-C459-4811-87C2-0CA7F0EF733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6419C8E1-0D2A-4F55-8971-6598D588909F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81BAD4D8-6961-4902-AF85-CF907221B4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035AC147-2D96-4209-9F8B-BC8396D14E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B20CDB5-2761-44FD-9967-5685EB22B2BD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8414,12 +8414,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{883EFED3-CD85-44DC-BF7A-19EB19A63FF8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9EA90D4C-F3DC-4769-BE26-C2EF25C9C674}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7F366704-A3A6-4471-B6DF-0667484CB890}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{DFF006B7-225D-4CE8-831F-F587DFE4AB87}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{0F39DC59-5815-4602-BEF4-6887A75D0436}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9674E145-D391-4B3C-825D-761761827490}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5FAF08DC-9601-4509-B255-4D2E2603F7C0}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6963558A-2D11-4C11-B4A3-DBD118F151EA}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BF606996-48BA-4E94-9ACC-108C0AE45912}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{FA96DD47-BAD0-4554-A9C0-F9A7E5740411}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{1FE58DAF-02D6-43AB-84FF-7F96A61C4FFF}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3E2D5DDB-7A96-4452-AE93-FAEBA2D846FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab29.xlsx
+++ b/AfDD_2024_Annex_Table_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E95789-F643-442A-A803-77E4AC5009FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D12763-05DF-4D15-9D04-CBDF38F24224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{94D9F0B3-01AC-48D0-8F73-C596A03874B3}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{542C106B-0F75-4DD2-AD15-C3F22A153323}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574FD7F9-81E9-4521-9AD4-D54F1B1A6E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D95ABAC-0318-40CD-BD6C-A7DB0BF998EB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8514,12 +8514,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BDCA25B0-9038-41E0-BA83-F9C1BCBF8F3F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2D6A9272-99AD-457C-BCB3-2AC939F1550B}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4C8A8757-FBA7-4260-9877-59BBA2BE9FF2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{79993104-FB3A-491B-BE85-6F03D21506E4}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{C61009C6-3921-433A-8DC8-B0BE28FA4A07}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{DE98492D-3834-403D-89C4-0E7F730640BA}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{70768166-4525-4E77-8BBF-8035786474E7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{76BE10BD-68D0-47B7-8A44-2DEBAA530B84}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3EB7C5E8-732A-41BD-A006-C6F55B335ADC}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F1CE5811-E682-4806-A30F-BD4D198C03BB}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{02A4AC2B-4BA7-4DE5-9333-690FB1CF0287}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{941B4D9A-F607-493F-B0B6-3DE0628D26BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
